--- a/doc/04_画面遷移図_天然水.xlsx
+++ b/doc/04_画面遷移図_天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B399AB-215E-4705-83A5-8F9D909949C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA3628-AE9B-4C7F-B0FD-A6C56E65E01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -130,6 +130,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>長島　蒼樹</t>
+    <rPh sb="0" eb="2">
+      <t>ナガシマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -217,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,6 +241,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,67 +633,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CFD0C1-E2B8-4F7D-B55E-3A1E6FE83078}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2482850" y="920750"/>
-          <a:ext cx="1962150" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理者機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>92075</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -1124,66 +1076,6 @@
         <a:xfrm flipV="1">
           <a:off x="7194550" y="2349500"/>
           <a:ext cx="774700" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>92075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF202B93-2C10-49B9-A702-D9D5230E293B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3463925" y="1397000"/>
-          <a:ext cx="6350" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1788,6 +1680,1027 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC79E57-8553-46C8-9869-BFFC11308A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="4711700"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE8CC9F-15AC-4424-9E2F-6E807C04E106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5378450" y="4711700"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60759376-4504-4794-B553-5E04FB1F064B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="4949825"/>
+          <a:ext cx="977900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="テキスト ボックス 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F501650-F9B9-4350-8F7D-F0082CFE72A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="1504950"/>
+          <a:ext cx="1009650" cy="425450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305BEFBB-9340-414A-87D7-9615EFA91A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="4191000"/>
+          <a:ext cx="1009650" cy="425450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ABB937-74AD-4B2A-AC5B-BF86AFBB58CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8108950" y="4724400"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ詳細　（編集可）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FFA86FF-658D-4206-8049-20EEEF8690F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8108950" y="5543550"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レシピ新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF78D2AC-D986-4213-8370-D9001B348C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="5537200"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー情報一覧（編集可）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989765B2-7624-4D75-8B12-5B53E8A4BEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="4949825"/>
+          <a:ext cx="768350" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEE0E49-8BC0-4ED8-AF00-509D1503414A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="91" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6353175" y="5187950"/>
+          <a:ext cx="6350" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D68D840-DD93-44F5-99AF-D7E435B261F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7302500" y="5181600"/>
+          <a:ext cx="793750" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F66EE9-E4C6-430D-A8CE-3CF00BEE6E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9090025" y="5200650"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0694EA-1082-4D55-B88D-C48D76FA2CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077200" y="6330950"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主要食材一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（編集可）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5C5360-4D4D-49E7-B641-EA054FDD71D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="6324600"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主要食材詳細表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（編集可）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EC72B3-15D0-4D16-909B-9EA0AC2E0925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="5207000"/>
+          <a:ext cx="831850" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4B6062-1754-485E-9BD5-E8A6831C9A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="1"/>
+          <a:endCxn id="111" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10039350" y="6562725"/>
+          <a:ext cx="361950" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,8 +3376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2482,7 +3395,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2492,7 +3407,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="5">
+        <v>45084</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">

--- a/doc/04_画面遷移図_天然水.xlsx
+++ b/doc/04_画面遷移図_天然水.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA3628-AE9B-4C7F-B0FD-A6C56E65E01E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F04FF6-0AAC-4F63-87A7-FF523B22ADF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -753,16 +753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>401721</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:rowOff>41609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>516022</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>54309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -773,15 +773,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="2117725"/>
-          <a:ext cx="723900" cy="12700"/>
+          <a:off x="13609721" y="2147135"/>
+          <a:ext cx="722564" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -813,35 +810,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>210219</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>375320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159084</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014287D0-360F-4358-99FE-8EFDA052F1AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="2"/>
-          <a:endCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5D6C84-DE63-4A53-8336-24BAC3617ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6257925" y="2355850"/>
-          <a:ext cx="0" cy="374650"/>
+        <a:xfrm flipV="1">
+          <a:off x="14026482" y="2213811"/>
+          <a:ext cx="773364" cy="385010"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -873,250 +867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C4D70D-EE7E-462F-9C25-9764B63458A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="24" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8943975" y="2368550"/>
-          <a:ext cx="12700" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>597902</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AA3DA1-8A43-4D71-BF31-21AF171466C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7239000" y="2968625"/>
-          <a:ext cx="736600" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>82550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EA8D04-6B2C-4ED0-9417-CA8F2CAABDBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7207250" y="2330450"/>
-          <a:ext cx="812800" cy="387350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5D6C84-DE63-4A53-8336-24BAC3617ACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7194550" y="2349500"/>
-          <a:ext cx="774700" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>121652</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>65171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1131,8 +891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5264150" y="3581400"/>
-          <a:ext cx="1962150" cy="476250"/>
+          <a:off x="5290218" y="3862806"/>
+          <a:ext cx="1956802" cy="480260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1169,15 +929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>359777</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1194,9 +954,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6245225" y="3206750"/>
-          <a:ext cx="12700" cy="374650"/>
+        <a:xfrm>
+          <a:off x="6261267" y="3241508"/>
+          <a:ext cx="7352" cy="621298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1229,15 +989,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>128336</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>261687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>18883</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1248,15 +1008,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="67" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7226300" y="3819525"/>
-          <a:ext cx="742950" cy="0"/>
+          <a:off x="7253704" y="4109620"/>
+          <a:ext cx="741615" cy="20052"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1288,15 +1045,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>255003</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>388353</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85223</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1311,8 +1068,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7969250" y="3581400"/>
-          <a:ext cx="1962150" cy="476250"/>
+          <a:off x="7988635" y="3882858"/>
+          <a:ext cx="1958139" cy="480260"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1348,16 +1105,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3844</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>17547</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106279</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1374,9 +1131,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8950325" y="3213100"/>
-          <a:ext cx="6350" cy="368300"/>
+        <a:xfrm>
+          <a:off x="8954002" y="3247858"/>
+          <a:ext cx="13703" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1547,15 +1304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>541421</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>458871</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,8 +1327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7023100" y="4013200"/>
-          <a:ext cx="1136650" cy="425450"/>
+          <a:off x="7058526" y="4318668"/>
+          <a:ext cx="1133977" cy="431466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2701,6 +2458,321 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08137C04-CCCA-4966-A13E-F6E0503820BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="1022350"/>
+          <a:ext cx="1962150" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334545</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>202197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467895</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE4EB4F-72E0-4930-B3B0-FD345781041F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10501229" y="1037723"/>
+          <a:ext cx="1958140" cy="480929"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページ編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334545</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8188</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AA6F12-4B01-4B82-AAF4-98F04A924786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8551445" y="1272841"/>
+          <a:ext cx="1949784" cy="5347"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467895</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形: 角を丸くする 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CCA23A4-F85A-4CD0-A7C6-7897C8CA4D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200316" y="942474"/>
+          <a:ext cx="4826000" cy="2580105"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40105</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="テキスト ボックス 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCA7862-7183-4DB8-89FB-C74481798F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9899314" y="2326105"/>
+          <a:ext cx="2740528" cy="320842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枠線内はすべてのページで行き来可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3376,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3475,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図_天然水.xlsx
+++ b/doc/04_画面遷移図_天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F04FF6-0AAC-4F63-87A7-FF523B22ADF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A84ED8-C1FC-4E25-BD80-18E3092F7651}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
